--- a/output_data/PREF_BAYEUX/FUNÇÃO_INTERMEDIÁRIO_PLACEHOLDER.xlsx
+++ b/output_data/PREF_BAYEUX/FUNÇÃO_INTERMEDIÁRIO_PLACEHOLDER.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arquivo FUNCAO estava vazio. Placeholder gerado</t>
+          <t>Vazio</t>
         </is>
       </c>
     </row>
